--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swan/PycharmProjects/Lizard_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swan/Documents/git/LizardError/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AEF163-D737-1743-8E6B-2FD390BECB33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="distribution" sheetId="1" r:id="rId1"/>
     <sheet name="parameter" sheetId="2" r:id="rId2"/>
     <sheet name="R_distribution" sheetId="3" r:id="rId3"/>
     <sheet name="R_parameter" sheetId="4" r:id="rId4"/>
+    <sheet name="R2_distribution" sheetId="6" r:id="rId5"/>
+    <sheet name="R2_parameter" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>category</t>
   </si>
@@ -97,13 +100,25 @@
   <si>
     <t>c5n1300</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>q1024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>q2048</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +139,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,13 +179,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,44 +456,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="10" width="10.7109375" style="1"/>
     <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -488,10 +513,10 @@
         <v>244</v>
       </c>
       <c r="G2" s="1">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -511,10 +536,10 @@
         <v>204</v>
       </c>
       <c r="G3" s="1">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -534,10 +559,10 @@
         <v>120</v>
       </c>
       <c r="G4" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -557,10 +582,10 @@
         <v>49</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -576,8 +601,11 @@
       <c r="F6" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,8 +618,11 @@
       <c r="F7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -601,8 +632,11 @@
       <c r="D8" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -612,8 +646,11 @@
       <c r="D9" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -623,8 +660,11 @@
       <c r="D10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -632,8 +672,11 @@
         <v>8</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -642,7 +685,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -658,21 +701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="10" width="10.7109375" style="1"/>
     <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -738,7 +781,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -761,7 +804,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,7 +827,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,7 +873,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,16 +903,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B5" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -886,7 +929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -903,7 +946,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -920,7 +963,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -937,7 +980,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -954,7 +997,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -969,7 +1012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -984,7 +1027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -996,7 +1039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1008,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1017,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1026,10 +1069,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
     </row>
   </sheetData>
@@ -1039,16 +1082,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1139,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1156,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1173,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1190,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1168,4 +1211,213 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372B5E3D-0ED4-C44B-BDBB-5456FAEC7A84}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="6" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>382</v>
+      </c>
+      <c r="C2" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>247</v>
+      </c>
+      <c r="C3" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9341A8FC-3DB3-444A-A190-CD4E1FBF09C1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="8" width="10.7109375" style="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1"/>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="C2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>168</v>
+      </c>
+      <c r="C3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>172</v>
+      </c>
+      <c r="C4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>256</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1024</v>
+      </c>
+      <c r="C7">
+        <v>2048</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>